--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2353.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2353.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8773295431505325</v>
+        <v>1.005670666694641</v>
       </c>
       <c r="B1">
-        <v>1.448270066426537</v>
+        <v>2.115151166915894</v>
       </c>
       <c r="C1">
-        <v>3.203730665055647</v>
+        <v>6.611392974853516</v>
       </c>
       <c r="D1">
-        <v>2.49665616672507</v>
+        <v>1.805461764335632</v>
       </c>
       <c r="E1">
-        <v>1.242279899541796</v>
+        <v>1.369054794311523</v>
       </c>
     </row>
   </sheetData>
